--- a/result_pysr/equations_water.xlsx
+++ b/result_pysr/equations_water.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>density*(-0.023277799*temperature + exp(tan(log(log(TPSA)/temperature)/density)))/(density**1.005 + 1.0e-16)</t>
+          <t>0.86187357*density*(-0.030393807*temperature + sin(0.026975779*density)**2 + cosh(2.0787718/(0.027595405*((density*temperature)))) - 0.14071961)/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>density*(-0.0207734868289174*density/sqrt(temperature) - 0.0207734868289174*temperature + 0.895693452140501*exp(3*cos((1.93747234258231*density + 0.895693452140501*temperature)/TPSA)/sqrt(density)))/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>density*(-0.02328246*temperature + exp(2*cos(log((density + temperature)*(temperature + exp(sqrt(density)))))/sqrt(density)))/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>density*(-6.01796774353946e-25*density**12 - 0.023621328*temperature + exp(2*cos(log((temperature + sqrt(density**3))**2))/sqrt(density)) + 0.47757798/density)/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>density*((-1.81520974512784*density + exp(3*cos(log(temperature))**2))*exp(-sqrt(density)) + cos(0.02254499*temperature) - 0.5295718)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>

--- a/result_pysr/equations_water.xlsx
+++ b/result_pysr/equations_water.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.86187357*density*(-0.030393807*temperature + sin(0.026975779*density)**2 + cosh(2.0787718/(0.027595405*((density*temperature)))) - 0.14071961)/(density**1.005 + 1.0e-16)</t>
+          <t>0.6702988*density*temperature*(-cos(temperature) + cos(density*temperature)**4)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>density*(-0.0207734868289174*density/sqrt(temperature) - 0.0207734868289174*temperature + 0.895693452140501*exp(3*cos((1.93747234258231*density + 0.895693452140501*temperature)/TPSA)/sqrt(density)))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>density*(-0.02328246*temperature + exp(2*cos(log((density + temperature)*(temperature + exp(sqrt(density)))))/sqrt(density)))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>density*(-6.01796774353946e-25*density**12 - 0.023621328*temperature + exp(2*cos(log((temperature + sqrt(density**3))**2))/sqrt(density)) + 0.47757798/density)/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>density*((-1.81520974512784*density + exp(3*cos(log(temperature))**2))*exp(-sqrt(density)) + cos(0.02254499*temperature) - 0.5295718)/(density**1.005 + 1.0e-16)</t>
+          <t>density*(1.64929138195774*log(1.52007411394956*density**6 + sinh(temperature)) - 1.64929138195774*sin(density*temperature) - 0.0156984126816334*exp(-2*temperature)/density**2)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
